--- a/medicine/Mort/Cimetière_de_Toronto_Avenue/Cimetière_de_Toronto_Avenue.xlsx
+++ b/medicine/Mort/Cimetière_de_Toronto_Avenue/Cimetière_de_Toronto_Avenue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Toronto_Avenue</t>
+          <t>Cimetière_de_Toronto_Avenue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le cimetière Toronto Avenue ou Toronto Avenue Cemetery[1] est un cimetière militaire britannique de soldats de la Première Guerre mondiale, situé dans la commune belge de Comines-Warneton. 
+Le cimetière Toronto Avenue ou Toronto Avenue Cemetery est un cimetière militaire britannique de soldats de la Première Guerre mondiale, situé dans la commune belge de Comines-Warneton. 
 Le cimetière est situé au milieu du bois de Ploegsteert, à environ 2 km au nord - est du centre du village de Ploegsteert. Il a été conçu par George Goldsmith et est entretenu par la Commonwealth War Graves Commission. Le site fait environ 315 m2. Ce cimetière est accessible à pied par un chemin forestier d'environ 500 m de long où se trouvent deux autres cimetières : Prowse Point Military Cemetery et Mud Corner Cemetery. 
 Le cimetière militaire du bois de Ploegsteert et le cimetière militaire Rifle House sont également situés dans le bois.
 Il y a 78 victimes enterrées.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Toronto_Avenue</t>
+          <t>Cimetière_de_Toronto_Avenue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Australiens surnommaient le bois Plugstreet Wood. Celui-ci était balisés de plusieurs sentiers qu'ils nommèrent Bunhill Row, Mud Lane, Hunter's Avenue et Toronto Avenue d'où ce cimetière a été nommé. Ces chemins, empruntés par les troupes pour se rendre au front, subissaient des tirs ennemis constants ainsi que des attaques au gaz. Il y a sept cimetières militaires à proximité.
 Les 78 victimes appartenaient à la 9e brigade (3e division australienne) décédée lors de la deuxième bataille de Messines, entre le 7 et le 10 juin 1917. Ce cimetière est le seul où tous les morts sont australiens. Deux d'entre eux n'ont pu être identifiés.
